--- a/Data/Newbie Data.xlsx
+++ b/Data/Newbie Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/h002_e_ntu_edu_sg/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeche\Documents\UiPath\RPA_Hackaton\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{2BC28F32-54B5-4295-ADDD-43382EF4A6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E126FE0-914A-4009-A236-3933F3DF1ED2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38606046-CD70-494A-BF86-8F9889BE15CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{5852D6D4-285B-4058-96AC-6E562A5C0B1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5852D6D4-285B-4058-96AC-6E562A5C0B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>1qazzaq1</t>
+  </si>
+  <si>
+    <t>Hackathon123</t>
   </si>
 </sst>
 </file>
@@ -420,13 +423,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -442,9 +445,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -461,7 +467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Newbie Data.xlsx
+++ b/Data/Newbie Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeche\Documents\UiPath\RPA_Hackaton\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\RPA\RPA_Hackaton\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38606046-CD70-494A-BF86-8F9889BE15CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606AB39-2D1E-4035-9340-504320ECE27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5852D6D4-285B-4058-96AC-6E562A5C0B1F}"/>
+    <workbookView xWindow="3552" yWindow="2112" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{5852D6D4-285B-4058-96AC-6E562A5C0B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -55,19 +55,60 @@
   </si>
   <si>
     <t>Hackathon123</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Ang Mo Kio Public Library</t>
+  </si>
+  <si>
+    <t>Adult Fiction, Level 1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Groupid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,13 +131,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -115,6 +161,23 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{46DD01BE-7B3D-4423-B585-0120F2BD5195}" name="Username"/>
     <tableColumn id="2" xr3:uid="{92F821B7-2B7B-4501-A04D-A2584FC98733}" name="Password"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D54DEF7-2484-4C96-8976-A368B101AD11}" name="Table2" displayName="Table2" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{0D54DEF7-2484-4C96-8976-A368B101AD11}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{EE12DE21-C43B-4419-9684-CC2F5F3DDF76}" name="Library"/>
+    <tableColumn id="2" xr3:uid="{46E21616-7A4F-4B60-A621-D869A4836092}" name="Area"/>
+    <tableColumn id="3" xr3:uid="{4231D16D-6845-4FE1-987C-9F42CDE5A04D}" name="Seat"/>
+    <tableColumn id="6" xr3:uid="{1E4BB1F7-B122-4DD5-A4E9-281F5704FA8B}" name="Groupid"/>
+    <tableColumn id="4" xr3:uid="{6E96BE3B-E838-40BE-A346-2F51DAF0D384}" name="Available"/>
+    <tableColumn id="5" xr3:uid="{317D9513-A63D-4BB1-8BE4-5C11D7B0AB4F}" name="Group" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.CONCAT(Table2[[#This Row],[Library]],Table2[[#This Row],[Area]],Table2[[#This Row],[Seat]]," ",Table2[[#This Row],[Groupid]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -419,17 +482,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA03003-87E0-4AB3-8D6A-74815AE7512E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -445,7 +508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -463,12 +526,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE31DEDB-43D1-405C-BBF3-6952EB40266D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[Library]],Table2[[#This Row],[Area]],Table2[[#This Row],[Seat]]," ",Table2[[#This Row],[Groupid]])</f>
+        <v>Ang Mo Kio Public LibraryAdult Fiction, Level 1S1 1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[Library]],Table2[[#This Row],[Area]],Table2[[#This Row],[Seat]]," ",Table2[[#This Row],[Groupid]])</f>
+        <v>Ang Mo Kio Public LibraryAdult Fiction, Level 1S2 1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[Library]],Table2[[#This Row],[Area]],Table2[[#This Row],[Seat]]," ",Table2[[#This Row],[Groupid]])</f>
+        <v>Ang Mo Kio Public LibraryAdult Fiction, Level 1S3 2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="str">
+        <f>_xlfn.CONCAT(Table2[[#This Row],[Library]],Table2[[#This Row],[Area]],Table2[[#This Row],[Seat]]," ",Table2[[#This Row],[Groupid]])</f>
+        <v>Ang Mo Kio Public LibraryAdult Fiction, Level 1S4 2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Data/Newbie Data.xlsx
+++ b/Data/Newbie Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\RPA\RPA_Hackaton\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606AB39-2D1E-4035-9340-504320ECE27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E569F5FA-1D92-45A2-9621-6A4D1A27FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="2112" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{5852D6D4-285B-4058-96AC-6E562A5C0B1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5852D6D4-285B-4058-96AC-6E562A5C0B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -91,13 +91,31 @@
   </si>
   <si>
     <t>Groupid</t>
+  </si>
+  <si>
+    <t>@Hendyley1</t>
+  </si>
+  <si>
+    <t>Tele</t>
+  </si>
+  <si>
+    <t>Kyrive</t>
+  </si>
+  <si>
+    <t>Forever97xnlb</t>
+  </si>
+  <si>
+    <t>@KyriveL1</t>
+  </si>
+  <si>
+    <t>@pistato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,11 +174,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F818EDAF-8C44-4951-AAD9-03ADA7D159C5}" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{F818EDAF-8C44-4951-AAD9-03ADA7D159C5}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F818EDAF-8C44-4951-AAD9-03ADA7D159C5}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{F818EDAF-8C44-4951-AAD9-03ADA7D159C5}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{46DD01BE-7B3D-4423-B585-0120F2BD5195}" name="Username"/>
     <tableColumn id="2" xr3:uid="{92F821B7-2B7B-4501-A04D-A2584FC98733}" name="Password"/>
+    <tableColumn id="3" xr3:uid="{272234F5-8A93-4235-9702-45E2971CED9A}" name="Tele"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -480,40 +499,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA03003-87E0-4AB3-8D6A-74815AE7512E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -528,11 +563,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE31DEDB-43D1-405C-BBF3-6952EB40266D}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
@@ -540,7 +575,7 @@
     <col min="6" max="6" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -560,7 +595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -578,7 +613,7 @@
         <v>Ang Mo Kio Public LibraryAdult Fiction, Level 1S1 1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -596,7 +631,7 @@
         <v>Ang Mo Kio Public LibraryAdult Fiction, Level 1S2 1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -614,7 +649,7 @@
         <v>Ang Mo Kio Public LibraryAdult Fiction, Level 1S3 2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
